--- a/My Sets/Star Honor (Arduboy)/Star Honor - Plan.xlsx
+++ b/My Sets/Star Honor (Arduboy)/Star Honor - Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Star Honor\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Star Honor (Arduboy)\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>Beat the game without reviving the crew</t>
   </si>
   <si>
-    <t>Make contact every planet in a sector (do not run away from combat)</t>
-  </si>
-  <si>
     <t>Expendable Crew</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>Shortest time to beat the game</t>
+  </si>
+  <si>
+    <t>Make contact every planet in a sector without running away</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F2:F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -787,7 +787,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -809,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -831,7 +831,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -853,7 +853,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -919,7 +919,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -985,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>12</v>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2456,19 +2456,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="b">
         <v>1</v>
@@ -2479,13 +2479,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>26</v>
@@ -2496,16 +2496,16 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>26</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>Achievements!F15</f>
-        <v>Make contact every planet in a sector (do not run away from combat)</v>
+        <v>Make contact every planet in a sector without running away</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>20</v>
@@ -3224,7 +3224,7 @@
     <row r="16" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Space Diplomacy","Make contact every planet in a sector (do not run away from combat)", 5, trigger)</v>
+        <v>achievement("Space Diplomacy","Make contact every planet in a sector without running away", 5, trigger)</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
